--- a/docs/ilan_ornekleri.xlsx
+++ b/docs/ilan_ornekleri.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jnuo/PycharmProjects/mypy/docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/onurovali/Documents/Code/mypy/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01AE0715-DF6B-4846-B342-AC1AEA78B9C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95F7E39B-B085-584B-B741-CA1268C90634}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="36440" windowHeight="22640" xr2:uid="{0BBDDF7F-B440-42CB-9CDE-E1A123451A8B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="36440" windowHeight="22640" xr2:uid="{0BBDDF7F-B440-42CB-9CDE-E1A123451A8B}"/>
   </bookViews>
   <sheets>
     <sheet name="kariyer" sheetId="1" r:id="rId1"/>
-    <sheet name="IO" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="182">
   <si>
     <t>Çift Pozisyon İlan</t>
   </si>
@@ -490,372 +489,6 @@
   </si>
   <si>
     <t>şirketimizin yürüteceği demiryolu projesi için proje şefi çalışma arkadaşı arayışımız mevcuttur. aranılan nitelikler üniversitelerin tercihen inşaat mühendisliği programlarından mezun proje şefi olarak tercihen demiryollarında en az 10 yıl deneyim sahibi ms office ve autocad programlarına hâkim tüm proje süreçlerini yakından takip edecek demiryolları projelerinin gerekli mevzuatını bilmek proje ile ilgili toplantılara katılım sağlayabilecek elektrik ve mekanik birimleri ile koordineli olarak imalat sürecinde gerekli revizyonların yapılmasını sağlayacak iyi derecede ingilizce bilen ekip yönetimi konusunda tecrübeli iletişim kurma ve dokümantasyon oluşturma konularında kabiliyetli proje müdürlerine teknik anlamda proje durumunu raporlamak proje geliştirme hedeflerini gerçekleştirmek iç ve dış paydaşlar ile iyi iletişim kurabilmek planlı ve disiplinli çalışmak yoğun ve esnek çalışma şartlarına uyum sağlamak projede oluşabilecek sorunlara çözüm odaklı olmak görev gereği seyahat engeli bulunmayan b sınıfı sürücü belgesine sahip aktif araç kullanabilen erkek adaylar için askerlik görevini tamamlamış olmak.</t>
-  </si>
-  <si>
-    <t>AccountId</t>
-  </si>
-  <si>
-    <t>companyId</t>
-  </si>
-  <si>
-    <t>CompanyName</t>
-  </si>
-  <si>
-    <t>AccountStatusType</t>
-  </si>
-  <si>
-    <t>jobId</t>
-  </si>
-  <si>
-    <t>StatusName</t>
-  </si>
-  <si>
-    <t>cityName</t>
-  </si>
-  <si>
-    <t>townName</t>
-  </si>
-  <si>
-    <t>positionNames</t>
-  </si>
-  <si>
-    <t>IlanYayinTarihi</t>
-  </si>
-  <si>
-    <t>jobApprovalType</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>Paris İstanbul vip güzellik merkezi</t>
-  </si>
-  <si>
-    <t>Active</t>
-  </si>
-  <si>
-    <t>E71D3828F4B84EC8BCE7D549E423AC60</t>
-  </si>
-  <si>
-    <t>Suspended</t>
-  </si>
-  <si>
-    <t>Şanlıurfa</t>
-  </si>
-  <si>
-    <t>Çocuk Bakıcısı</t>
-  </si>
-  <si>
-    <t>ev temizlik  çocuk bakicisi bayan  yatilida. kalabilir.  gerekirse  kız çocuğu.  2yasinda</t>
-  </si>
-  <si>
-    <t>Ustaoglu Et Lokantasi</t>
-  </si>
-  <si>
-    <t>E71D35C8368D424BBD89A38EF2854B60</t>
-  </si>
-  <si>
-    <t>Gümüşhane</t>
-  </si>
-  <si>
-    <t>Kürtün</t>
-  </si>
-  <si>
-    <t>Mutfak Elemanı</t>
-  </si>
-  <si>
-    <t>bulasik ve temizlik icin elaman ariyoruz</t>
-  </si>
-  <si>
-    <t>AK_OM YÖNETİM VE DANİŞMANLİK</t>
-  </si>
-  <si>
-    <t>E71D19CF47BD43168CCB079B6B2D1065</t>
-  </si>
-  <si>
-    <t>İstanbul</t>
-  </si>
-  <si>
-    <t>Kâğıthane</t>
-  </si>
-  <si>
-    <t>Güvenlik Danışmanı</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acil Kağıthane  G.o.p Bayrampaşa Eyüp ve Alibeyköy  bölgesine guvenlik danışma ve gece bekçisi 20-40 yas arasi bay 2300-2900 maas aralığı + sosyal haklar  yol,yemek,sgk, agi </t>
-  </si>
-  <si>
-    <t>Yalova Segal Grand  ?????</t>
-  </si>
-  <si>
-    <t>E71D0F1B6AAD4FED99BF59382A33D2F2</t>
-  </si>
-  <si>
-    <t>Yalova</t>
-  </si>
-  <si>
-    <t>Halkla İlişkiler Elemanı</t>
-  </si>
-  <si>
-    <t>5* Tesisimizin Halkla iliskiler departmani restaourant ve kat hizmetleri departmaninda görevlendirilmek üzere  seyahat engeli olmayan konaklamasi bulunan tesisimize 18/35 yas arasi bay bayan ekip arkadaslari Araniyor !!!  Not:Deneyim şart değil</t>
-  </si>
-  <si>
-    <t>coffeemania</t>
-  </si>
-  <si>
-    <t>E71CE1369E69441DA43584DCF3CFD3BE</t>
-  </si>
-  <si>
-    <t>Passive</t>
-  </si>
-  <si>
-    <t>Bağcılar</t>
-  </si>
-  <si>
-    <t>Aşçıbaşı</t>
-  </si>
-  <si>
-    <t>Bay Bayan aşçı aranıyor.</t>
-  </si>
-  <si>
-    <t>ÖZGENÇ HAFRİYAT</t>
-  </si>
-  <si>
-    <t>E71CCF870C274BC9B08F5E7E2FA20E30</t>
-  </si>
-  <si>
-    <t>Konya</t>
-  </si>
-  <si>
-    <t>Selçuklu</t>
-  </si>
-  <si>
-    <t>Motor Bakım ve Onarım Teknisyeni</t>
-  </si>
-  <si>
-    <t>Çorlu'daki şantiyemizde çalışmak üzere;BelgeliMercedes kamyon motor tamir şanzıman makas elektronik işlerinden çok iyi anlayanMotor tamircileri,Elektrikçiler,Torna ve kaynak ustaları alınacaktır.</t>
-  </si>
-  <si>
-    <t>ORİPAK DIŞ TİCARET LTD.ŞTİ.</t>
-  </si>
-  <si>
-    <t>E71CB24727754797B89C3B0A6A339351</t>
-  </si>
-  <si>
-    <t>Eleman</t>
-  </si>
-  <si>
-    <t>PAPE FİLM İLE ÖZEL BİR AMBALAJ ÜRETİMİ YAPAN İŞYERİNDE MAKİNE USTASI VE AYNI ZAMANDA OPERATÖRÜ OLARAK GÖREV ALINACAKTIR. NÖMATİK VE FOTOSELLİ MAKİNE KULLANILAN, AMBALAJ SEKTÖRÜNDE PAPE FİLM, HAVA YASTIĞI, ATLET POŞET, KARGO POŞETİ, VAKUMLU POŞET GİBİ ÜRÜNLERDE ÜRETİM YAPILAN BİR İŞYERİNDE MAKİNELERİN TÜM BAKIM VE GENEL TAMİR İŞLERİNİ YAPMIŞ MAKİNEYİ OPERATÖR OLARAK YÖNETMİŞ . ÇALIŞMA SAATLERİ 08:00 - 18:00 DIR. HAFTA SONU CUMARTESİ GÜNÜ 08:00 - 13:00 DIR. MAKİNE AKSAMINI VE MEKANİĞİNİ BİLEN, ELEKTRİK TESİSATI KONUSUNDA BİLGİ SAHİBİ VE GEREKTİĞİNDE ARIZAYA MÜDAHALE EDEBİLECEK ÇALIŞMA ARKADAŞI ARANMAKTADIR. ERKEK ADAYLAR TERCİH SEBEBİDİR</t>
-  </si>
-  <si>
-    <t>CONFRDAROSYON Yönetim</t>
-  </si>
-  <si>
-    <t>E71CB0D81A48461298FEEB5A7CBAB88A</t>
-  </si>
-  <si>
-    <t>Bahçelievler</t>
-  </si>
-  <si>
-    <t>Servis Şoförü</t>
-  </si>
-  <si>
-    <t>hadimkoy santiye de calisicak servis şoförü aranıyor.</t>
-  </si>
-  <si>
-    <t>Moonstar</t>
-  </si>
-  <si>
-    <t>E71C929405E04CD5B269EBE88F74357F</t>
-  </si>
-  <si>
-    <t>Zeytinburnu</t>
-  </si>
-  <si>
-    <t>Garson</t>
-  </si>
-  <si>
-    <t xml:space="preserve">işletmemize Dünya mutfağı, Nargile, Bar deneyimli bay-bayan garsonlar aranmaktadır. </t>
-  </si>
-  <si>
-    <t>Huga Künefe</t>
-  </si>
-  <si>
-    <t>E71C812EEDF04475A71B6217D2A603C3</t>
-  </si>
-  <si>
-    <t>Harmandere</t>
-  </si>
-  <si>
-    <t>Aşçı</t>
-  </si>
-  <si>
-    <t>Personel yemegi yapacak ve yöresel serpe kahvaltı verecek aşçı arıyoruz</t>
-  </si>
-  <si>
-    <t>Müstehcen, sakıncalı içerik veya görsel</t>
-  </si>
-  <si>
-    <t>Adaydan ücret talep ediliyor</t>
-  </si>
-  <si>
-    <t>Ayrımcılık/Cinsiyet</t>
-  </si>
-  <si>
-    <t>Çift Pozisyon</t>
-  </si>
-  <si>
-    <t>Firma talebi üzerine ilan kaldırıldı</t>
-  </si>
-  <si>
-    <t>İlan şartları gerçekçi değil veya yanıltıcı</t>
-  </si>
-  <si>
-    <t>İş ilanı değil, aday profili ilanı/ortak arıyorum/satılık kiralık devren kiralık/satılık</t>
-  </si>
-  <si>
-    <t>MushtehcenSikayet</t>
-  </si>
-  <si>
-    <t>ToplamAdaySikayeti</t>
-  </si>
-  <si>
-    <t>A0A2E3C175714BE19AC42DA7BD0F9B69</t>
-  </si>
-  <si>
-    <t>Blocked</t>
-  </si>
-  <si>
-    <t>Bilecik</t>
-  </si>
-  <si>
-    <t>Bilecik Merkez? </t>
-  </si>
-  <si>
-    <t>Homeoffice Çağrı Merkezi Müşteri Temsilcisi Detaylı bilgi ve başvuru için yoğun telefon trafiği ve iş yoğunluğu nedeniyle tüm çağrılara cevap verilemediğinden cv lerinizi ayseerteminsankaynaklarii@gmail.com mail adresimiz üzerinden ileterek insan kaynakları departmanımız ile iletişime geçerek ayrıntılı bilgi alabilirsiniz..</t>
-  </si>
-  <si>
-    <t>EAD5DF6037524712954843D19120212C</t>
-  </si>
-  <si>
-    <t>Aydın</t>
-  </si>
-  <si>
-    <t>Asistan</t>
-  </si>
-  <si>
-    <t>tecrubeli veya tecrubesiz acsees bilen world ecxel bilen toplantilarda not tutabilecek telefonlara bakabilecek evrak duzeni sagliyabilecek randevularimi olusturabilecek yol yemek sgk var cumartesi pazar tatil (Giyimmm sartttim var )(Etekkk Gomlek )uyabilen basvursun Bilgisayar kullanabilecek BAYAN ELEMAN</t>
-  </si>
-  <si>
-    <t>E46E8E8FA8C04F4284C72EDE7F3D4946</t>
-  </si>
-  <si>
-    <t>Tokat</t>
-  </si>
-  <si>
-    <t>Tokat Merkez</t>
-  </si>
-  <si>
-    <t>Paketleme Elemanı</t>
-  </si>
-  <si>
-    <t>•Evden ek iş yapmak isteyenler.  •Ev hanımları, öğrenciler, emekliler ya da paraya ihtiyacı olanlar.  PAKETLEME İŞİ YAPARAK SİZDE PARA KAZANABİLİRSİNİZ.</t>
-  </si>
-  <si>
-    <t>938ADD8E377D4EF5BF994E574C2A7B3E</t>
-  </si>
-  <si>
-    <t>Vasıfsız Eleman</t>
-  </si>
-  <si>
-    <t>evde esime yardımcı olacak temizlikte cocuk bakımında apla aryoruz yabancı arkadaslarda araya bilir 05050270859 orhan</t>
-  </si>
-  <si>
-    <t>A7519C3564B44D6FBFC9DE694CE2291D</t>
-  </si>
-  <si>
-    <t>BlockedBySystem</t>
-  </si>
-  <si>
-    <t>Kocaeli</t>
-  </si>
-  <si>
-    <t>Gebze</t>
-  </si>
-  <si>
-    <t>sirketimizde calismak uzere bayan sekreter,muhasebe ve reklamci araniyor</t>
-  </si>
-  <si>
-    <t>E4297CBDA43B4A5E96774096B9346A40</t>
-  </si>
-  <si>
-    <t>İzmit</t>
-  </si>
-  <si>
-    <t>Paket Servis Elemanı</t>
-  </si>
-  <si>
-    <t>1.Kurye 11:00 ve 23:00 arası Sabit Vardiya 2.Kurye 12:00 ve 00:00 arası Sabit Vardiya  2 Moto Kurye ARANIYOR Haftada 1 gün tatil  11 saat :198?lira+2? prim+ Bahşiş+Yemek+Sigorta  Tüm sosyal haklar mevcuttur. NET:200?  Kurye Amiri ile koordineli, Söyleneni harfiyen uygulayan, işine önem veren disiplinli Çalışacak motorlu kurye arayışımız bulunmaktadır.   Kendi motoru ile benzin kişiye ait.  Saati : 18 lira    İzmit Bölgesine Hakim  işinde tecrübeli güvenebileceğimiz personeller arıyoruz.</t>
-  </si>
-  <si>
-    <t>3D1309BEDE8346F689DE20121F9CB58D</t>
-  </si>
-  <si>
-    <t>Başak</t>
-  </si>
-  <si>
-    <t>Ofis Elemanı</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ofis bölümüne elaman bayan arıyorum </t>
-  </si>
-  <si>
-    <t>1F7151D03C414ADF845D81B10385F68F</t>
-  </si>
-  <si>
-    <t>İzmir</t>
-  </si>
-  <si>
-    <t>Karşıyaka</t>
-  </si>
-  <si>
-    <t>Temizlik Görevlisi</t>
-  </si>
-  <si>
-    <t>temizlik park dayim temizlik elamanaraniyoru  buca sirinyer calisacak elaman araniyoru</t>
-  </si>
-  <si>
-    <t>0396A0652AB5485C962F4A6645B2E63E</t>
-  </si>
-  <si>
-    <t>Küçükçekmece</t>
-  </si>
-  <si>
-    <t>Reklam Satış Temsilcisi</t>
-  </si>
-  <si>
-    <t>Sayfaya da evden ek iş arayan arkadaşlar bana ulaşabilirler özellikle kadınların ilgisini çekecek bir iş olduğunu düşünüyorum.</t>
-  </si>
-  <si>
-    <t>CC387CA172B14DD798D95010095E5A7C</t>
-  </si>
-  <si>
-    <t>Adana</t>
-  </si>
-  <si>
-    <t>Seyhan</t>
-  </si>
-  <si>
-    <t>Çırak</t>
-  </si>
-  <si>
-    <t>gurselpasa cevresi cocuk cirak araniyor is ogrenmek isteyen</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>İlan risk skoru</t>
   </si>
   <si>
     <t>IlanSonYayin Tarihi</t>
@@ -1010,15 +643,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="22" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1034,13 +661,7 @@
     <cellStyle name="Normal 2" xfId="1" xr:uid="{2F187964-BA65-4942-811A-2430644F0A03}"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="27" formatCode="m/d/yy\ h:mm"/>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -1083,7 +704,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A35712B1-13AF-9247-A0FB-38314A7AD782}" name="Table2" displayName="Table2" ref="H1:V46" totalsRowShown="0" headerRowDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A35712B1-13AF-9247-A0FB-38314A7AD782}" name="Table2" displayName="Table2" ref="H1:V46" totalsRowShown="0" headerRowDxfId="3">
   <autoFilter ref="H1:V46" xr:uid="{CAF5CC63-BA31-E449-9F9E-16BE9B6B1D24}"/>
   <tableColumns count="15">
     <tableColumn id="1" xr3:uid="{240C4D7B-6FA2-4440-8D58-21E3F63A5454}" name="actual Label"/>
@@ -1097,43 +718,12 @@
     <tableColumn id="9" xr3:uid="{B18E785D-2FFE-7C47-BD82-C1D183773ED6}" name="IlanAdi"/>
     <tableColumn id="10" xr3:uid="{196F79B2-9172-7640-9A04-981C616A2946}" name="PozisyonAdi"/>
     <tableColumn id="11" xr3:uid="{1476A82A-5CAE-F542-A182-0503E36F1B2F}" name="Ilan Kodu"/>
-    <tableColumn id="12" xr3:uid="{63F3CA2D-553E-B847-AD0B-97984E502CAC}" name="AllText" dataDxfId="4"/>
+    <tableColumn id="12" xr3:uid="{63F3CA2D-553E-B847-AD0B-97984E502CAC}" name="AllText" dataDxfId="2"/>
     <tableColumn id="13" xr3:uid="{10DA03CC-520D-E545-8674-15A899CDB16A}" name="Temiz Text"/>
-    <tableColumn id="14" xr3:uid="{513628C1-DB16-DC4A-B709-B8B885EC3979}" name="Risk Skoru" dataDxfId="3" dataCellStyle="Percent"/>
-    <tableColumn id="15" xr3:uid="{2368618B-650B-3841-8804-2A6A2011C166}" name="Ilan URL" dataDxfId="2">
+    <tableColumn id="14" xr3:uid="{513628C1-DB16-DC4A-B709-B8B885EC3979}" name="Risk Skoru" dataDxfId="1" dataCellStyle="Percent"/>
+    <tableColumn id="15" xr3:uid="{2368618B-650B-3841-8804-2A6A2011C166}" name="Ilan URL" dataDxfId="0">
       <calculatedColumnFormula>CONCATENATE("https://www.kariyer.net/is-ilani/abc-",Table2[[#This Row],[Ilan Kodu]])</calculatedColumnFormula>
     </tableColumn>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D6A728ED-AEC4-0C41-B557-F0065A48D3E8}" name="Table1" displayName="Table1" ref="A1:V21" totalsRowShown="0" headerRowCellStyle="Normal 2" dataCellStyle="Normal 2">
-  <autoFilter ref="A1:V21" xr:uid="{8E6A2DC3-E39E-DF47-9356-B24482F243A3}"/>
-  <tableColumns count="22">
-    <tableColumn id="1" xr3:uid="{0526588F-EE44-8949-A76E-4C1747F1D0C5}" name="AccountId" dataCellStyle="Normal 2"/>
-    <tableColumn id="2" xr3:uid="{9BA4713B-6D85-8F49-B418-480530379EDD}" name="companyId" dataCellStyle="Normal 2"/>
-    <tableColumn id="3" xr3:uid="{56521A54-32D9-1D48-BD57-1326E6B79125}" name="CompanyName" dataCellStyle="Normal 2"/>
-    <tableColumn id="4" xr3:uid="{74D76819-7A60-544C-A683-22A6DB3768BD}" name="AccountStatusType" dataCellStyle="Normal 2"/>
-    <tableColumn id="5" xr3:uid="{707E7C99-2819-1E4E-A85C-B75E3E1F4D1B}" name="StatusName" dataCellStyle="Normal 2"/>
-    <tableColumn id="6" xr3:uid="{16183B46-BF1E-8F42-AEAC-AA2A8111C2C1}" name="cityName" dataCellStyle="Normal 2"/>
-    <tableColumn id="7" xr3:uid="{A71F2938-3D45-194B-9FB9-8424C977908E}" name="townName" dataCellStyle="Normal 2"/>
-    <tableColumn id="8" xr3:uid="{DCC34D38-89EA-0E45-84A5-606AB4A5C995}" name="positionNames" dataCellStyle="Normal 2"/>
-    <tableColumn id="9" xr3:uid="{C1041F0D-7CBC-FF4B-832A-90C5B8D946F5}" name="IlanYayinTarihi" dataDxfId="1" dataCellStyle="Normal 2"/>
-    <tableColumn id="10" xr3:uid="{03829A30-7642-F34E-BE18-D21529DF5698}" name="jobApprovalType" dataCellStyle="Normal 2"/>
-    <tableColumn id="11" xr3:uid="{12C8FF92-7D2E-0147-AF06-A874EACA36AA}" name="Müstehcen, sakıncalı içerik veya görsel" dataCellStyle="Normal 2"/>
-    <tableColumn id="12" xr3:uid="{ACE127AF-FC31-BB4D-B4E7-371B229EE099}" name="Adaydan ücret talep ediliyor" dataCellStyle="Normal 2"/>
-    <tableColumn id="13" xr3:uid="{3EA0735A-D980-614B-827C-B4D6048A9011}" name="Ayrımcılık/Cinsiyet" dataCellStyle="Normal 2"/>
-    <tableColumn id="14" xr3:uid="{E8F156EC-68B3-4B45-8E99-79F7149A8B25}" name="Çift Pozisyon" dataCellStyle="Normal 2"/>
-    <tableColumn id="15" xr3:uid="{32FA495F-2D83-E64B-8082-09B15CAFC657}" name="Firma talebi üzerine ilan kaldırıldı" dataCellStyle="Normal 2"/>
-    <tableColumn id="16" xr3:uid="{33268B1D-1395-034A-9810-61E16D4CFBF1}" name="İlan şartları gerçekçi değil veya yanıltıcı" dataCellStyle="Normal 2"/>
-    <tableColumn id="17" xr3:uid="{E270F164-E2B4-E945-A4BE-985B748DF9BE}" name="İş ilanı değil, aday profili ilanı/ortak arıyorum/satılık kiralık devren kiralık/satılık" dataCellStyle="Normal 2"/>
-    <tableColumn id="18" xr3:uid="{15C5C8C1-E253-1846-B0CC-9E64DC6B5D32}" name="MushtehcenSikayet" dataCellStyle="Normal 2"/>
-    <tableColumn id="19" xr3:uid="{9F5D9BEC-B264-524F-8950-2F23896B56CF}" name="ToplamAdaySikayeti" dataCellStyle="Normal 2"/>
-    <tableColumn id="20" xr3:uid="{D05F03EC-218E-6241-A566-B8C728B2E9D9}" name="jobId" dataCellStyle="Normal 2"/>
-    <tableColumn id="21" xr3:uid="{E416D0BB-E0A1-4244-81F0-1F178DD66972}" name="description" dataDxfId="0" dataCellStyle="Normal 2"/>
-    <tableColumn id="22" xr3:uid="{8E53225E-8584-E648-9D64-6C457FA68097}" name="İlan risk skoru"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1438,9 +1028,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D6DEE56-5512-4ADF-8CFA-F991217D6AA5}">
   <dimension ref="A1:V46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
+      <selection pane="bottomLeft" activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1454,78 +1044,78 @@
     <col min="15" max="15" width="28.5" customWidth="1"/>
     <col min="16" max="17" width="30.5" customWidth="1"/>
     <col min="18" max="18" width="10.6640625" customWidth="1"/>
-    <col min="19" max="19" width="30.83203125" style="10" customWidth="1"/>
-    <col min="20" max="20" width="123.5" style="6" customWidth="1"/>
+    <col min="19" max="19" width="30.83203125" style="6" customWidth="1"/>
+    <col min="20" max="20" width="123.5" style="2" customWidth="1"/>
     <col min="21" max="21" width="11.1640625" customWidth="1"/>
     <col min="22" max="22" width="37" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="6" customFormat="1" ht="64" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="E1" s="6" t="s">
+    <row r="1" spans="1:22" s="2" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>303</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" s="6" t="s">
+      <c r="F1" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="P1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="Q1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="R1" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="S1" s="10" t="s">
+      <c r="R1" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="S1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="T1" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="U1" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="V1" s="6" t="s">
-        <v>293</v>
+      <c r="T1" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="85" x14ac:dyDescent="0.2">
@@ -1574,22 +1164,22 @@
       <c r="O2" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="P2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="Q2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="R2">
         <v>1594609</v>
       </c>
-      <c r="S2" s="10" t="s">
+      <c r="S2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="T2" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="U2" s="8">
+      <c r="T2" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="U2" s="4">
         <v>0.99</v>
       </c>
       <c r="V2" t="str">
@@ -1643,22 +1233,22 @@
       <c r="O3" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="6" t="s">
+      <c r="P3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q3" s="6" t="s">
+      <c r="Q3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="R3">
         <v>2585005</v>
       </c>
-      <c r="S3" s="10" t="s">
+      <c r="S3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="T3" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="U3" s="8">
+      <c r="T3" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="U3" s="4">
         <v>0.99</v>
       </c>
       <c r="V3" t="str">
@@ -1712,22 +1302,22 @@
       <c r="O4" t="s">
         <v>19</v>
       </c>
-      <c r="P4" s="6" t="s">
+      <c r="P4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="Q4" s="6" t="s">
+      <c r="Q4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="R4">
         <v>1675614</v>
       </c>
-      <c r="S4" s="10" t="s">
+      <c r="S4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="T4" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="U4" s="8">
+      <c r="T4" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="U4" s="4">
         <v>0.99</v>
       </c>
       <c r="V4" t="str">
@@ -1781,22 +1371,22 @@
       <c r="O5" t="s">
         <v>22</v>
       </c>
-      <c r="P5" s="6" t="s">
+      <c r="P5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="Q5" s="6" t="s">
+      <c r="Q5" s="2" t="s">
         <v>21</v>
       </c>
       <c r="R5">
         <v>2422829</v>
       </c>
-      <c r="S5" s="10" t="s">
+      <c r="S5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="T5" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="U5" s="8">
+      <c r="T5" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="U5" s="4">
         <v>0.98</v>
       </c>
       <c r="V5" t="str">
@@ -1850,22 +1440,22 @@
       <c r="O6" t="s">
         <v>25</v>
       </c>
-      <c r="P6" s="6" t="s">
+      <c r="P6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Q6" s="6" t="s">
+      <c r="Q6" s="2" t="s">
         <v>24</v>
       </c>
       <c r="R6">
         <v>1905540</v>
       </c>
-      <c r="S6" s="10" t="s">
+      <c r="S6" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="T6" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="U6" s="8">
+      <c r="T6" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="U6" s="4">
         <v>0.99</v>
       </c>
       <c r="V6" t="str">
@@ -1919,22 +1509,22 @@
       <c r="O7" t="s">
         <v>29</v>
       </c>
-      <c r="P7" s="6" t="s">
+      <c r="P7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="Q7" s="6" t="s">
+      <c r="Q7" s="2" t="s">
         <v>30</v>
       </c>
       <c r="R7">
         <v>1597616</v>
       </c>
-      <c r="S7" s="10" t="s">
+      <c r="S7" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="T7" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="U7" s="8">
+      <c r="T7" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="U7" s="4">
         <v>0.99</v>
       </c>
       <c r="V7" t="str">
@@ -1988,22 +1578,22 @@
       <c r="O8" t="s">
         <v>34</v>
       </c>
-      <c r="P8" s="6" t="s">
+      <c r="P8" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q8" s="6" t="s">
+      <c r="Q8" s="2" t="s">
         <v>35</v>
       </c>
       <c r="R8">
         <v>1612705</v>
       </c>
-      <c r="S8" s="10" t="s">
+      <c r="S8" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="T8" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="U8" s="8">
+      <c r="T8" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="U8" s="4">
         <v>0.99</v>
       </c>
       <c r="V8" t="str">
@@ -2057,22 +1647,22 @@
       <c r="O9" t="s">
         <v>38</v>
       </c>
-      <c r="P9" s="6" t="s">
+      <c r="P9" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Q9" s="6" t="s">
+      <c r="Q9" s="2" t="s">
         <v>37</v>
       </c>
       <c r="R9">
         <v>2511541</v>
       </c>
-      <c r="S9" s="10" t="s">
+      <c r="S9" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="T9" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="U9" s="8">
+      <c r="T9" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="U9" s="4">
         <v>0.24</v>
       </c>
       <c r="V9" t="str">
@@ -2126,22 +1716,22 @@
       <c r="O10" t="s">
         <v>42</v>
       </c>
-      <c r="P10" s="6" t="s">
+      <c r="P10" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="Q10" s="6" t="s">
+      <c r="Q10" s="2" t="s">
         <v>43</v>
       </c>
       <c r="R10">
         <v>1649453</v>
       </c>
-      <c r="S10" s="10" t="s">
+      <c r="S10" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="T10" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="U10" s="8">
+      <c r="T10" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="U10" s="4">
         <v>0.99</v>
       </c>
       <c r="V10" t="str">
@@ -2195,22 +1785,22 @@
       <c r="O11" t="s">
         <v>47</v>
       </c>
-      <c r="P11" s="6" t="s">
+      <c r="P11" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="Q11" s="6" t="s">
+      <c r="Q11" s="2" t="s">
         <v>46</v>
       </c>
       <c r="R11">
         <v>1497712</v>
       </c>
-      <c r="S11" s="10" t="s">
+      <c r="S11" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="T11" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="U11" s="8">
+      <c r="T11" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="U11" s="4">
         <v>0.99</v>
       </c>
       <c r="V11" t="str">
@@ -2264,19 +1854,19 @@
       <c r="O12" t="s">
         <v>50</v>
       </c>
-      <c r="P12" s="6" t="s">
+      <c r="P12" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="Q12" s="6" t="s">
+      <c r="Q12" s="2" t="s">
         <v>49</v>
       </c>
       <c r="R12">
         <v>1670121</v>
       </c>
-      <c r="S12" s="10" t="s">
+      <c r="S12" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="U12" s="9">
+      <c r="U12" s="5">
         <v>0</v>
       </c>
       <c r="V12" t="str">
@@ -2330,19 +1920,19 @@
       <c r="O13" t="s">
         <v>53</v>
       </c>
-      <c r="P13" s="6" t="s">
+      <c r="P13" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="Q13" s="6" t="s">
+      <c r="Q13" s="2" t="s">
         <v>52</v>
       </c>
       <c r="R13">
         <v>1945801</v>
       </c>
-      <c r="S13" s="10" t="s">
+      <c r="S13" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="U13" s="9">
+      <c r="U13" s="5">
         <v>0</v>
       </c>
       <c r="V13" t="str">
@@ -2396,19 +1986,19 @@
       <c r="O14" t="s">
         <v>56</v>
       </c>
-      <c r="P14" s="6" t="s">
+      <c r="P14" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="Q14" s="6" t="s">
+      <c r="Q14" s="2" t="s">
         <v>57</v>
       </c>
       <c r="R14">
         <v>2065790</v>
       </c>
-      <c r="S14" s="10" t="s">
+      <c r="S14" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="U14" s="9">
+      <c r="U14" s="5">
         <v>0</v>
       </c>
       <c r="V14" t="str">
@@ -2462,19 +2052,19 @@
       <c r="O15" t="s">
         <v>60</v>
       </c>
-      <c r="P15" s="6" t="s">
+      <c r="P15" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="Q15" s="6" t="s">
+      <c r="Q15" s="2" t="s">
         <v>59</v>
       </c>
       <c r="R15">
         <v>2117446</v>
       </c>
-      <c r="S15" s="10" t="s">
+      <c r="S15" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="U15" s="9">
+      <c r="U15" s="5">
         <v>0</v>
       </c>
       <c r="V15" t="str">
@@ -2528,19 +2118,19 @@
       <c r="O16" t="s">
         <v>63</v>
       </c>
-      <c r="P16" s="6" t="s">
+      <c r="P16" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="Q16" s="6" t="s">
+      <c r="Q16" s="2" t="s">
         <v>64</v>
       </c>
       <c r="R16">
         <v>1659678</v>
       </c>
-      <c r="S16" s="10" t="s">
+      <c r="S16" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="U16" s="9">
+      <c r="U16" s="5">
         <v>0</v>
       </c>
       <c r="V16" t="str">
@@ -2594,19 +2184,19 @@
       <c r="O17" t="s">
         <v>67</v>
       </c>
-      <c r="P17" s="6" t="s">
+      <c r="P17" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="Q17" s="6" t="s">
+      <c r="Q17" s="2" t="s">
         <v>68</v>
       </c>
       <c r="R17">
         <v>1631516</v>
       </c>
-      <c r="S17" s="10" t="s">
+      <c r="S17" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="U17" s="9">
+      <c r="U17" s="5">
         <v>0</v>
       </c>
       <c r="V17" t="str">
@@ -2660,19 +2250,19 @@
       <c r="O18" t="s">
         <v>71</v>
       </c>
-      <c r="P18" s="6" t="s">
+      <c r="P18" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="Q18" s="6" t="s">
+      <c r="Q18" s="2" t="s">
         <v>70</v>
       </c>
       <c r="R18">
         <v>1783026</v>
       </c>
-      <c r="S18" s="10" t="s">
+      <c r="S18" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="U18" s="9">
+      <c r="U18" s="5">
         <v>0</v>
       </c>
       <c r="V18" t="str">
@@ -2726,19 +2316,19 @@
       <c r="O19" t="s">
         <v>74</v>
       </c>
-      <c r="P19" s="6" t="s">
+      <c r="P19" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="Q19" s="6" t="s">
+      <c r="Q19" s="2" t="s">
         <v>73</v>
       </c>
       <c r="R19">
         <v>2352552</v>
       </c>
-      <c r="S19" s="10" t="s">
+      <c r="S19" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="U19" s="9">
+      <c r="U19" s="5">
         <v>0</v>
       </c>
       <c r="V19" t="str">
@@ -2792,19 +2382,19 @@
       <c r="O20" t="s">
         <v>77</v>
       </c>
-      <c r="P20" s="6" t="s">
+      <c r="P20" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="Q20" s="6" t="s">
+      <c r="Q20" s="2" t="s">
         <v>76</v>
       </c>
       <c r="R20">
         <v>1739524</v>
       </c>
-      <c r="S20" s="10" t="s">
+      <c r="S20" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="U20" s="9">
+      <c r="U20" s="5">
         <v>0</v>
       </c>
       <c r="V20" t="str">
@@ -2858,19 +2448,19 @@
       <c r="O21" t="s">
         <v>80</v>
       </c>
-      <c r="P21" s="6" t="s">
+      <c r="P21" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="Q21" s="6" t="s">
+      <c r="Q21" s="2" t="s">
         <v>79</v>
       </c>
       <c r="R21">
         <v>1761373</v>
       </c>
-      <c r="S21" s="10" t="s">
+      <c r="S21" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="U21" s="9">
+      <c r="U21" s="5">
         <v>0</v>
       </c>
       <c r="V21" t="str">
@@ -2924,19 +2514,19 @@
       <c r="O22" t="s">
         <v>83</v>
       </c>
-      <c r="P22" s="6" t="s">
+      <c r="P22" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="Q22" s="6" t="s">
+      <c r="Q22" s="2" t="s">
         <v>84</v>
       </c>
       <c r="R22">
         <v>2048188</v>
       </c>
-      <c r="S22" s="10" t="s">
+      <c r="S22" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="U22" s="9">
+      <c r="U22" s="5">
         <v>0</v>
       </c>
       <c r="V22" t="str">
@@ -2990,19 +2580,19 @@
       <c r="O23" t="s">
         <v>86</v>
       </c>
-      <c r="P23" s="6" t="s">
+      <c r="P23" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Q23" s="6" t="s">
+      <c r="Q23" s="2" t="s">
         <v>43</v>
       </c>
       <c r="R23">
         <v>2475064</v>
       </c>
-      <c r="S23" s="10" t="s">
+      <c r="S23" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="U23" s="9">
+      <c r="U23" s="5">
         <v>0</v>
       </c>
       <c r="V23" t="str">
@@ -3056,19 +2646,19 @@
       <c r="O24" t="s">
         <v>89</v>
       </c>
-      <c r="P24" s="6" t="s">
+      <c r="P24" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="Q24" s="6" t="s">
+      <c r="Q24" s="2" t="s">
         <v>88</v>
       </c>
       <c r="R24">
         <v>2498671</v>
       </c>
-      <c r="S24" s="10" t="s">
+      <c r="S24" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="U24" s="9">
+      <c r="U24" s="5">
         <v>0</v>
       </c>
       <c r="V24" t="str">
@@ -3122,19 +2712,19 @@
       <c r="O25" t="s">
         <v>92</v>
       </c>
-      <c r="P25" s="6" t="s">
+      <c r="P25" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="Q25" s="6" t="s">
+      <c r="Q25" s="2" t="s">
         <v>91</v>
       </c>
       <c r="R25">
         <v>2159957</v>
       </c>
-      <c r="S25" s="10" t="s">
+      <c r="S25" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="U25" s="9">
+      <c r="U25" s="5">
         <v>0</v>
       </c>
       <c r="V25" t="str">
@@ -3188,19 +2778,19 @@
       <c r="O26" t="s">
         <v>95</v>
       </c>
-      <c r="P26" s="6" t="s">
+      <c r="P26" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="Q26" s="6" t="s">
+      <c r="Q26" s="2" t="s">
         <v>96</v>
       </c>
       <c r="R26">
         <v>2514145</v>
       </c>
-      <c r="S26" s="10" t="s">
+      <c r="S26" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="U26" s="9">
+      <c r="U26" s="5">
         <v>0</v>
       </c>
       <c r="V26" t="str">
@@ -3254,19 +2844,19 @@
       <c r="O27" t="s">
         <v>99</v>
       </c>
-      <c r="P27" s="6" t="s">
+      <c r="P27" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="Q27" s="6" t="s">
+      <c r="Q27" s="2" t="s">
         <v>100</v>
       </c>
       <c r="R27">
         <v>1630816</v>
       </c>
-      <c r="S27" s="10" t="s">
+      <c r="S27" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="U27" s="9">
+      <c r="U27" s="5">
         <v>0</v>
       </c>
       <c r="V27" t="str">
@@ -3320,19 +2910,19 @@
       <c r="O28" t="s">
         <v>103</v>
       </c>
-      <c r="P28" s="6" t="s">
+      <c r="P28" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="Q28" s="6" t="s">
+      <c r="Q28" s="2" t="s">
         <v>104</v>
       </c>
       <c r="R28">
         <v>1629244</v>
       </c>
-      <c r="S28" s="10" t="s">
+      <c r="S28" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="U28" s="9">
+      <c r="U28" s="5">
         <v>0</v>
       </c>
       <c r="V28" t="str">
@@ -3386,19 +2976,19 @@
       <c r="O29" t="s">
         <v>107</v>
       </c>
-      <c r="P29" s="6" t="s">
+      <c r="P29" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="Q29" s="6" t="s">
+      <c r="Q29" s="2" t="s">
         <v>108</v>
       </c>
       <c r="R29">
         <v>1674563</v>
       </c>
-      <c r="S29" s="10" t="s">
+      <c r="S29" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="U29" s="9">
+      <c r="U29" s="5">
         <v>0</v>
       </c>
       <c r="V29" t="str">
@@ -3452,19 +3042,19 @@
       <c r="O30" t="s">
         <v>111</v>
       </c>
-      <c r="P30" s="6" t="s">
+      <c r="P30" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="Q30" s="6" t="s">
+      <c r="Q30" s="2" t="s">
         <v>110</v>
       </c>
       <c r="R30">
         <v>1659231</v>
       </c>
-      <c r="S30" s="10" t="s">
+      <c r="S30" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="U30" s="9">
+      <c r="U30" s="5">
         <v>0</v>
       </c>
       <c r="V30" t="str">
@@ -3518,19 +3108,19 @@
       <c r="O31" t="s">
         <v>114</v>
       </c>
-      <c r="P31" s="6" t="s">
+      <c r="P31" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="Q31" s="6" t="s">
+      <c r="Q31" s="2" t="s">
         <v>115</v>
       </c>
       <c r="R31">
         <v>1647622</v>
       </c>
-      <c r="S31" s="10" t="s">
+      <c r="S31" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="U31" s="9">
+      <c r="U31" s="5">
         <v>0</v>
       </c>
       <c r="V31" t="str">
@@ -3584,22 +3174,22 @@
       <c r="O32" t="s">
         <v>119</v>
       </c>
-      <c r="P32" s="6" t="s">
+      <c r="P32" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="Q32" s="6" t="s">
+      <c r="Q32" s="2" t="s">
         <v>118</v>
       </c>
       <c r="R32">
         <v>2552815</v>
       </c>
-      <c r="S32" s="10" t="s">
+      <c r="S32" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="T32" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="U32" s="8">
+      <c r="T32" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="U32" s="4">
         <v>0.99</v>
       </c>
       <c r="V32" t="str">
@@ -3653,22 +3243,22 @@
       <c r="O33" t="s">
         <v>122</v>
       </c>
-      <c r="P33" s="6" t="s">
+      <c r="P33" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="Q33" s="6" t="s">
+      <c r="Q33" s="2" t="s">
         <v>123</v>
       </c>
       <c r="R33">
         <v>2539954</v>
       </c>
-      <c r="S33" s="10" t="s">
+      <c r="S33" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="T33" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="U33" s="8">
+      <c r="T33" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="U33" s="4">
         <v>0.99</v>
       </c>
       <c r="V33" t="str">
@@ -3722,22 +3312,22 @@
       <c r="O34" t="s">
         <v>126</v>
       </c>
-      <c r="P34" s="6" t="s">
+      <c r="P34" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="Q34" s="6" t="s">
+      <c r="Q34" s="2" t="s">
         <v>127</v>
       </c>
       <c r="R34">
         <v>2525568</v>
       </c>
-      <c r="S34" s="10" t="s">
+      <c r="S34" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="T34" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="U34" s="8">
+      <c r="T34" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="U34" s="4">
         <v>0.97</v>
       </c>
       <c r="V34" t="str">
@@ -3791,22 +3381,22 @@
       <c r="O35" t="s">
         <v>131</v>
       </c>
-      <c r="P35" s="6" t="s">
+      <c r="P35" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="Q35" s="6" t="s">
+      <c r="Q35" s="2" t="s">
         <v>130</v>
       </c>
       <c r="R35">
         <v>2484454</v>
       </c>
-      <c r="S35" s="10" t="s">
+      <c r="S35" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="T35" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="U35" s="8">
+      <c r="T35" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="U35" s="4">
         <v>0.98</v>
       </c>
       <c r="V35" t="str">
@@ -3860,22 +3450,22 @@
       <c r="O36" t="s">
         <v>134</v>
       </c>
-      <c r="P36" s="6" t="s">
+      <c r="P36" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="Q36" s="6" t="s">
+      <c r="Q36" s="2" t="s">
         <v>133</v>
       </c>
       <c r="R36">
         <v>2549771</v>
       </c>
-      <c r="S36" s="10" t="s">
+      <c r="S36" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="T36" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="U36" s="8">
+      <c r="T36" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="U36" s="4">
         <v>0.99</v>
       </c>
       <c r="V36" t="str">
@@ -3896,13 +3486,13 @@
       <c r="R37">
         <v>2578141</v>
       </c>
-      <c r="S37" s="10" t="s">
+      <c r="S37" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="T37" s="7" t="s">
+      <c r="T37" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="U37" s="8">
+      <c r="U37" s="4">
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="V37" t="str">
@@ -3923,13 +3513,13 @@
       <c r="R38">
         <v>2581513</v>
       </c>
-      <c r="S38" s="10" t="s">
+      <c r="S38" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="T38" s="7" t="s">
+      <c r="T38" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="U38" s="8">
+      <c r="U38" s="4">
         <v>0.04</v>
       </c>
       <c r="V38" t="str">
@@ -3950,13 +3540,13 @@
       <c r="R39">
         <v>2580091</v>
       </c>
-      <c r="S39" s="10" t="s">
+      <c r="S39" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="T39" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="U39" s="8">
+      <c r="T39" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="U39" s="4">
         <v>0.12</v>
       </c>
       <c r="V39" t="str">
@@ -3977,13 +3567,13 @@
       <c r="R40">
         <v>2567468</v>
       </c>
-      <c r="S40" s="10" t="s">
+      <c r="S40" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="T40" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="U40" s="8">
+      <c r="T40" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="U40" s="4">
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="V40" t="str">
@@ -4004,13 +3594,13 @@
       <c r="R41">
         <v>2572694</v>
       </c>
-      <c r="S41" s="10" t="s">
+      <c r="S41" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="T41" s="7" t="s">
+      <c r="T41" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="U41" s="8">
+      <c r="U41" s="4">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="V41" t="str">
@@ -4031,13 +3621,13 @@
       <c r="R42">
         <v>2570432</v>
       </c>
-      <c r="S42" s="10" t="s">
+      <c r="S42" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="T42" s="7" t="s">
+      <c r="T42" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="U42" s="8">
+      <c r="U42" s="4">
         <v>1.6E-2</v>
       </c>
       <c r="V42" t="str">
@@ -4058,13 +3648,13 @@
       <c r="R43">
         <v>2537360</v>
       </c>
-      <c r="S43" s="10" t="s">
+      <c r="S43" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="T43" s="7" t="s">
+      <c r="T43" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="U43" s="8">
+      <c r="U43" s="4">
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="V43" t="str">
@@ -4085,13 +3675,13 @@
       <c r="R44">
         <v>2574735</v>
       </c>
-      <c r="S44" s="10" t="s">
+      <c r="S44" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="T44" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="U44" s="8">
+      <c r="T44" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="U44" s="4">
         <v>0.01</v>
       </c>
       <c r="V44" t="str">
@@ -4112,13 +3702,13 @@
       <c r="R45">
         <v>2592305</v>
       </c>
-      <c r="S45" s="10" t="s">
+      <c r="S45" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="T45" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="U45" s="8">
+      <c r="T45" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="U45" s="4">
         <v>2.9000000000000001E-2</v>
       </c>
       <c r="V45" t="str">
@@ -4139,1224 +3729,18 @@
       <c r="R46">
         <v>2595964</v>
       </c>
-      <c r="S46" s="10" t="s">
+      <c r="S46" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="T46" s="7" t="s">
+      <c r="T46" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="U46" s="8">
+      <c r="U46" s="4">
         <v>2.4599999999999999E-3</v>
       </c>
       <c r="V46" t="str">
         <f>CONCATENATE("https://www.kariyer.net/is-ilani/abc-",Table2[[#This Row],[Ilan Kodu]])</f>
         <v>https://www.kariyer.net/is-ilani/abc-2595964</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{007E2864-38E6-3E4E-BAB5-56BB5D9B3892}">
-  <dimension ref="A1:V21"/>
-  <sheetViews>
-    <sheetView topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="U17" sqref="U17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="11.5" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" customWidth="1"/>
-    <col min="7" max="7" width="13.83203125" customWidth="1"/>
-    <col min="8" max="8" width="24.83203125" customWidth="1"/>
-    <col min="9" max="9" width="14.83203125" customWidth="1"/>
-    <col min="10" max="10" width="16.6640625" customWidth="1"/>
-    <col min="11" max="11" width="33.1640625" customWidth="1"/>
-    <col min="12" max="12" width="25.33203125" customWidth="1"/>
-    <col min="13" max="13" width="18.33203125" customWidth="1"/>
-    <col min="14" max="14" width="13.1640625" customWidth="1"/>
-    <col min="15" max="15" width="29.1640625" customWidth="1"/>
-    <col min="16" max="16" width="33.33203125" customWidth="1"/>
-    <col min="17" max="17" width="64.1640625" customWidth="1"/>
-    <col min="18" max="18" width="18.83203125" customWidth="1"/>
-    <col min="19" max="19" width="8.1640625" customWidth="1"/>
-    <col min="20" max="20" width="34" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="75.33203125" customWidth="1"/>
-    <col min="22" max="22" width="13.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
-        <v>2642303</v>
-      </c>
-      <c r="B2" s="2">
-        <v>261648</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="I2" s="3">
-        <v>44061.94027777778</v>
-      </c>
-      <c r="J2" s="2">
-        <v>1</v>
-      </c>
-      <c r="K2" s="2"/>
-      <c r="T2" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="U2" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="V2">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
-        <v>1278328</v>
-      </c>
-      <c r="B3" s="2">
-        <v>154159</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="I3" s="3">
-        <v>43597.961805555555</v>
-      </c>
-      <c r="J3" s="2">
-        <v>1</v>
-      </c>
-      <c r="K3" s="2"/>
-      <c r="T3" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="U3" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" ht="32" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
-        <v>2082897</v>
-      </c>
-      <c r="B4" s="2">
-        <v>210202</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="I4" s="3">
-        <v>43840.670138888891</v>
-      </c>
-      <c r="J4" s="2">
-        <v>1</v>
-      </c>
-      <c r="K4" s="2"/>
-      <c r="T4" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="U4" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" ht="48" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
-        <v>947808</v>
-      </c>
-      <c r="B5" s="2">
-        <v>121446</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="I5" s="3">
-        <v>43484.76666666667</v>
-      </c>
-      <c r="J5" s="2">
-        <v>1</v>
-      </c>
-      <c r="K5" s="2"/>
-      <c r="T5" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="U5" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
-        <v>2890935</v>
-      </c>
-      <c r="B6" s="2">
-        <v>299726</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="I6" s="3">
-        <v>44135.675694444442</v>
-      </c>
-      <c r="J6" s="2">
-        <v>1</v>
-      </c>
-      <c r="K6" s="2"/>
-      <c r="T6" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="U6" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" ht="48" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
-        <v>2434185</v>
-      </c>
-      <c r="B7" s="2">
-        <v>241265</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="I7" s="3">
-        <v>44091.709027777775</v>
-      </c>
-      <c r="J7" s="2">
-        <v>1</v>
-      </c>
-      <c r="K7" s="2"/>
-      <c r="T7" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="U7" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="V7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" ht="128" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
-        <v>1743031</v>
-      </c>
-      <c r="B8" s="2">
-        <v>186645</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="I8" s="3">
-        <v>43747.672222222223</v>
-      </c>
-      <c r="J8" s="2">
-        <v>1</v>
-      </c>
-      <c r="K8" s="2"/>
-      <c r="T8" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="U8" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="V8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
-        <v>1555559</v>
-      </c>
-      <c r="B9" s="2">
-        <v>169696</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="I9" s="3">
-        <v>43677.451388888891</v>
-      </c>
-      <c r="J9" s="2">
-        <v>1</v>
-      </c>
-      <c r="K9" s="2"/>
-      <c r="T9" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="U9" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="V9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
-        <v>2220817</v>
-      </c>
-      <c r="B10" s="2">
-        <v>220457</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="I10" s="3">
-        <v>43874.973611111112</v>
-      </c>
-      <c r="J10" s="2">
-        <v>1</v>
-      </c>
-      <c r="K10" s="2"/>
-      <c r="T10" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="U10" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="V10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
-        <v>2178896</v>
-      </c>
-      <c r="B11" s="2">
-        <v>216951</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="I11" s="3">
-        <v>44028.470138888886</v>
-      </c>
-      <c r="J11" s="2">
-        <v>1</v>
-      </c>
-      <c r="K11" s="2"/>
-      <c r="T11" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="U11" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="V11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" ht="64" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I12" s="3">
-        <v>44137.938888888886</v>
-      </c>
-      <c r="J12" s="2">
-        <v>0</v>
-      </c>
-      <c r="K12" s="2">
-        <v>0</v>
-      </c>
-      <c r="L12" s="2">
-        <v>0</v>
-      </c>
-      <c r="M12" s="2">
-        <v>0</v>
-      </c>
-      <c r="N12" s="2">
-        <v>0</v>
-      </c>
-      <c r="O12" s="2">
-        <v>0</v>
-      </c>
-      <c r="P12" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="2">
-        <v>0</v>
-      </c>
-      <c r="R12" s="2">
-        <v>0</v>
-      </c>
-      <c r="S12" s="2">
-        <v>0</v>
-      </c>
-      <c r="T12" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="U12" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="V12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" ht="64" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="I13" s="3">
-        <v>44137.787499999999</v>
-      </c>
-      <c r="J13" s="2">
-        <v>0</v>
-      </c>
-      <c r="K13" s="2">
-        <v>1</v>
-      </c>
-      <c r="L13" s="2">
-        <v>0</v>
-      </c>
-      <c r="M13" s="2">
-        <v>0</v>
-      </c>
-      <c r="N13" s="2">
-        <v>0</v>
-      </c>
-      <c r="O13" s="2">
-        <v>0</v>
-      </c>
-      <c r="P13" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="2">
-        <v>0</v>
-      </c>
-      <c r="R13" s="2">
-        <v>0</v>
-      </c>
-      <c r="S13" s="2">
-        <v>0</v>
-      </c>
-      <c r="T13" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="U13" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="V13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" ht="32" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="I14" s="3">
-        <v>44130.790277777778</v>
-      </c>
-      <c r="J14" s="2">
-        <v>0</v>
-      </c>
-      <c r="K14" s="2">
-        <v>0</v>
-      </c>
-      <c r="L14" s="2">
-        <v>1</v>
-      </c>
-      <c r="M14" s="2">
-        <v>0</v>
-      </c>
-      <c r="N14" s="2">
-        <v>0</v>
-      </c>
-      <c r="O14" s="2">
-        <v>0</v>
-      </c>
-      <c r="P14" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="2">
-        <v>0</v>
-      </c>
-      <c r="R14" s="2">
-        <v>0</v>
-      </c>
-      <c r="S14" s="2">
-        <v>1</v>
-      </c>
-      <c r="T14" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="U14" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="V14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" ht="32" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="I15" s="3">
-        <v>44136.525694444441</v>
-      </c>
-      <c r="J15" s="2">
-        <v>0</v>
-      </c>
-      <c r="K15" s="2">
-        <v>0</v>
-      </c>
-      <c r="L15" s="2">
-        <v>0</v>
-      </c>
-      <c r="M15" s="2">
-        <v>1</v>
-      </c>
-      <c r="N15" s="2">
-        <v>0</v>
-      </c>
-      <c r="O15" s="2">
-        <v>0</v>
-      </c>
-      <c r="P15" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="2">
-        <v>0</v>
-      </c>
-      <c r="R15" s="2">
-        <v>0</v>
-      </c>
-      <c r="S15" s="2">
-        <v>0</v>
-      </c>
-      <c r="T15" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="U15" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="V15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="I16" s="3">
-        <v>44127.51666666667</v>
-      </c>
-      <c r="J16" s="2">
-        <v>0</v>
-      </c>
-      <c r="K16" s="2">
-        <v>0</v>
-      </c>
-      <c r="L16" s="2">
-        <v>0</v>
-      </c>
-      <c r="M16" s="2">
-        <v>0</v>
-      </c>
-      <c r="N16" s="2">
-        <v>1</v>
-      </c>
-      <c r="O16" s="2">
-        <v>0</v>
-      </c>
-      <c r="P16" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="2">
-        <v>0</v>
-      </c>
-      <c r="R16" s="2">
-        <v>0</v>
-      </c>
-      <c r="S16" s="2">
-        <v>0</v>
-      </c>
-      <c r="T16" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="U16" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="V16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" ht="96" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="I17" s="3">
-        <v>44135.078472222223</v>
-      </c>
-      <c r="J17" s="2">
-        <v>0</v>
-      </c>
-      <c r="K17" s="2">
-        <v>0</v>
-      </c>
-      <c r="L17" s="2">
-        <v>0</v>
-      </c>
-      <c r="M17" s="2">
-        <v>0</v>
-      </c>
-      <c r="N17" s="2">
-        <v>0</v>
-      </c>
-      <c r="O17" s="2">
-        <v>1</v>
-      </c>
-      <c r="P17" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="2">
-        <v>0</v>
-      </c>
-      <c r="R17" s="2">
-        <v>0</v>
-      </c>
-      <c r="S17" s="2">
-        <v>0</v>
-      </c>
-      <c r="T17" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="U17" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="V17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="I18" s="3">
-        <v>44135.679861111108</v>
-      </c>
-      <c r="J18" s="2">
-        <v>0</v>
-      </c>
-      <c r="K18" s="2">
-        <v>0</v>
-      </c>
-      <c r="L18" s="2">
-        <v>0</v>
-      </c>
-      <c r="M18" s="2">
-        <v>0</v>
-      </c>
-      <c r="N18" s="2">
-        <v>0</v>
-      </c>
-      <c r="O18" s="2">
-        <v>0</v>
-      </c>
-      <c r="P18" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q18" s="2">
-        <v>0</v>
-      </c>
-      <c r="R18" s="2">
-        <v>1</v>
-      </c>
-      <c r="S18" s="2">
-        <v>3</v>
-      </c>
-      <c r="T18" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="U18" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="V18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="I19" s="3">
-        <v>44135.479861111111</v>
-      </c>
-      <c r="J19" s="2">
-        <v>0</v>
-      </c>
-      <c r="K19" s="2">
-        <v>0</v>
-      </c>
-      <c r="L19" s="2">
-        <v>0</v>
-      </c>
-      <c r="M19" s="2">
-        <v>0</v>
-      </c>
-      <c r="N19" s="2">
-        <v>0</v>
-      </c>
-      <c r="O19" s="2">
-        <v>0</v>
-      </c>
-      <c r="P19" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q19" s="2">
-        <v>0</v>
-      </c>
-      <c r="R19" s="2">
-        <v>1</v>
-      </c>
-      <c r="S19" s="2">
-        <v>1</v>
-      </c>
-      <c r="T19" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="U19" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="V19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" ht="32" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="I20" s="3">
-        <v>44137.443749999999</v>
-      </c>
-      <c r="J20" s="2">
-        <v>0</v>
-      </c>
-      <c r="K20" s="2">
-        <v>0</v>
-      </c>
-      <c r="L20" s="2">
-        <v>0</v>
-      </c>
-      <c r="M20" s="2">
-        <v>0</v>
-      </c>
-      <c r="N20" s="2">
-        <v>0</v>
-      </c>
-      <c r="O20" s="2">
-        <v>0</v>
-      </c>
-      <c r="P20" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="2">
-        <v>1</v>
-      </c>
-      <c r="R20" s="2">
-        <v>0</v>
-      </c>
-      <c r="S20" s="2">
-        <v>0</v>
-      </c>
-      <c r="T20" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="U20" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="V20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="I21" s="3">
-        <v>44135.438888888886</v>
-      </c>
-      <c r="J21" s="2">
-        <v>0</v>
-      </c>
-      <c r="K21" s="2">
-        <v>0</v>
-      </c>
-      <c r="L21" s="2">
-        <v>0</v>
-      </c>
-      <c r="M21" s="2">
-        <v>0</v>
-      </c>
-      <c r="N21" s="2">
-        <v>0</v>
-      </c>
-      <c r="O21" s="2">
-        <v>0</v>
-      </c>
-      <c r="P21" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q21" s="2">
-        <v>0</v>
-      </c>
-      <c r="R21" s="2">
-        <v>1</v>
-      </c>
-      <c r="S21" s="2">
-        <v>1</v>
-      </c>
-      <c r="T21" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="U21" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="V21">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
